--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_19.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>237952.1348702689</v>
+        <v>275840.4651387919</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484442</v>
+        <v>492028.9342484453</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8241615.518505707</v>
+        <v>8266868.045579553</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>28.23265508498332</v>
       </c>
       <c r="C2" t="n">
-        <v>320.0331481255877</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>103.7608962408851</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>85.78580588144442</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -874,7 +874,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -902,7 +902,7 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>356.7183168649526</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>272.433138907949</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1066,13 +1066,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>23.21215624113652</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>125.4289004454252</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>170.9935203427982</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1199,7 +1199,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>148.1221594290542</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>68.58644351709033</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1306,7 +1306,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1339,7 +1339,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1351,13 +1351,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>134.2252585165371</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>373.4441774159549</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1421,10 +1421,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>206.485501777224</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1540,7 +1540,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170492</v>
+        <v>24.34318456170464</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>101.4556968337276</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>71.84692347866329</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1765,7 +1765,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>50.38971918733516</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1777,10 +1777,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170493</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1850,7 +1850,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>244.6538412157995</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>33.08339867820141</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225794</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>240.273786227905</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2084,7 +2084,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>163.9521757218092</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2135,13 +2135,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>389.8384684437407</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>24.34318456170498</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>5.990622819018522</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2536,7 +2536,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068454</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2725,7 +2725,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>3.139541480023354</v>
+        <v>3.139541480022559</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>160.7884964950064</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3190,7 +3190,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>24.62703520776662</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3275,7 +3275,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948846</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
@@ -3436,7 +3436,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068458</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3563,7 +3563,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.8069000430772</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -3667,19 +3667,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>53.90045570694569</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225763</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>122.4914619056497</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>155.2022955251541</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3961,7 +3961,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4195,7 +4195,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068455</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.640221925911</v>
+        <v>1378.535529293604</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>1344.433460517432</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>1312.56407973228</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>878.7893348905752</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>450.9219052997829</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304679</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304679</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>656.8099308587483</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>656.8099308587483</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>656.8099308587483</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>656.8099308587483</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1264.51257716731</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797688</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756282</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2235.297000382378</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2235.297000382378</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2235.297000382378</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1830.441545793411</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>1411.299082372722</v>
       </c>
       <c r="Y2" t="n">
-        <v>464.8993883704147</v>
+        <v>1407.053362712779</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1298.296211021823</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>1191.839749858466</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1096.749461005019</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>1002.629046331973</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>919.2452079481343</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>833.8601182143182</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>792.1244660305306</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>818.1881391909882</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1142.746464157201</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1750.449110465762</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1797.452510782924</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1797.452510782924</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1797.452510782924</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1797.452510782924</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1797.452510782924</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2338.191449415</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2391.908789957723</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2261.730146288324</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2085.393599288293</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1886.276081350292</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1700.953327083486</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1546.085891322366</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1419.600112101587</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.2559470001092</v>
+        <v>1128.165445162068</v>
       </c>
       <c r="C4" t="n">
-        <v>209.2559470001092</v>
+        <v>955.6037336452931</v>
       </c>
       <c r="D4" t="n">
-        <v>209.2559470001092</v>
+        <v>789.7257408468158</v>
       </c>
       <c r="E4" t="n">
-        <v>209.2559470001092</v>
+        <v>619.967737097553</v>
       </c>
       <c r="F4" t="n">
-        <v>209.2559470001092</v>
+        <v>443.2606830593093</v>
       </c>
       <c r="G4" t="n">
-        <v>209.2559470001092</v>
+        <v>277.6694080851369</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>135.6869697148767</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>410.4454242860122</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>828.6553060539734</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>1288.139173234886</v>
       </c>
       <c r="N4" t="n">
-        <v>1235.38760622724</v>
+        <v>1730.397976392531</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>2150.067225618312</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214711</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2274.705037512708</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>2028.825591091163</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1750.392590344268</v>
       </c>
       <c r="V4" t="n">
-        <v>726.6741060804052</v>
+        <v>1750.392590344268</v>
       </c>
       <c r="W4" t="n">
-        <v>454.6477016666967</v>
+        <v>1478.36618593056</v>
       </c>
       <c r="X4" t="n">
-        <v>209.2559470001092</v>
+        <v>1232.974431263972</v>
       </c>
       <c r="Y4" t="n">
-        <v>209.2559470001092</v>
+        <v>1232.974431263972</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>888.1040799405455</v>
+        <v>981.4316298953097</v>
       </c>
       <c r="C5" t="n">
-        <v>854.0020111643728</v>
+        <v>947.329561119137</v>
       </c>
       <c r="D5" t="n">
-        <v>822.1326303792214</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>1831.934434009412</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>1427.078979420445</v>
       </c>
       <c r="X5" t="n">
-        <v>914.6089660449918</v>
+        <v>1007.936515999756</v>
       </c>
       <c r="Y5" t="n">
-        <v>910.3632463850493</v>
+        <v>1003.690796339813</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>884.4397056785397</v>
+        <v>990.3147246321321</v>
       </c>
       <c r="C7" t="n">
-        <v>711.8779941617646</v>
+        <v>817.753013115357</v>
       </c>
       <c r="D7" t="n">
-        <v>546.0000013632873</v>
+        <v>651.8750203168797</v>
       </c>
       <c r="E7" t="n">
-        <v>376.2419976140245</v>
+        <v>482.117016567617</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>305.4099625293732</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T7" t="n">
-        <v>1675.765608785789</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>1675.765608785789</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>1675.765608785789</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W7" t="n">
-        <v>1549.069749750006</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>1303.677995083419</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y7" t="n">
-        <v>1076.258324397527</v>
+        <v>1182.133343351119</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1796.174776892337</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="C8" t="n">
-        <v>1623.454049273349</v>
+        <v>1640.083330343465</v>
       </c>
       <c r="D8" t="n">
-        <v>1187.544264447793</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E8" t="n">
-        <v>753.7695196060886</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F8" t="n">
-        <v>325.9020900152964</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>325.9020900152964</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851263</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K8" t="n">
-        <v>491.8246367576064</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>491.8246367576064</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="M8" t="n">
-        <v>491.8246367576064</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="N8" t="n">
-        <v>491.8246367576064</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743871</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873481</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172575</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.781722377069</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>1822.679662996783</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>1818.433943336841</v>
+        <v>2504.525373644949</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864477</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761163</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230017</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897023</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851826</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842762</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>846.6696276309906</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C10" t="n">
-        <v>846.6696276309906</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D10" t="n">
-        <v>777.3903917551418</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E10" t="n">
-        <v>607.632388005879</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F10" t="n">
-        <v>430.9253339676351</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G10" t="n">
-        <v>265.3340589934628</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838373</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851263</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851263</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>174.10912527277</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>629.1618265718637</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1071.420629729508</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1491.08987895529</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925631</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951631003</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1657.937582929</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.058136507455</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>1133.62513576056</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V10" t="n">
-        <v>846.6696276309906</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W10" t="n">
-        <v>846.6696276309906</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X10" t="n">
-        <v>846.6696276309906</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.6696276309906</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2472.724095295529</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>2034.581622478952</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1598.671837653396</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1164.897092811691</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874951</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397518</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5060,31 +5060,31 @@
         <v>4249.890463748773</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302703</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T11" t="n">
-        <v>4544.575746323208</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.575746323208</v>
+        <v>4493.924657556612</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257035</v>
+        <v>4131.307707490439</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3726.452252901472</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3307.309789480783</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547032</v>
+        <v>2899.023665780436</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.2298140987273</v>
+        <v>806.2298140987272</v>
       </c>
       <c r="C13" t="n">
-        <v>633.6681025819522</v>
+        <v>633.6681025819521</v>
       </c>
       <c r="D13" t="n">
         <v>467.7901097834749</v>
       </c>
       <c r="E13" t="n">
-        <v>298.0321060342122</v>
+        <v>298.0321060342121</v>
       </c>
       <c r="F13" t="n">
-        <v>121.3250519959684</v>
+        <v>121.3250519959683</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5242,7 +5242,7 @@
         <v>1225.468103503606</v>
       </c>
       <c r="Y13" t="n">
-        <v>998.0484328177145</v>
+        <v>998.0484328177142</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2336.308741984731</v>
+        <v>2522.958394689265</v>
       </c>
       <c r="C14" t="n">
-        <v>1898.166269168154</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D14" t="n">
-        <v>1462.256484342599</v>
+        <v>1648.906137047133</v>
       </c>
       <c r="E14" t="n">
-        <v>1028.481739500894</v>
+        <v>1215.131392205428</v>
       </c>
       <c r="F14" t="n">
-        <v>600.6143099101018</v>
+        <v>787.2639626146356</v>
       </c>
       <c r="G14" t="n">
-        <v>199.2164785333653</v>
+        <v>385.866131237899</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>498.7803825855946</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>1573.840348838454</v>
       </c>
       <c r="M14" t="n">
-        <v>2481.810506693463</v>
+        <v>2730.888184049005</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693463</v>
+        <v>3856.619167485452</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263769</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097165</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055759</v>
+        <v>4764.22618407731</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928798</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="U14" t="n">
-        <v>4357.509304245815</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V14" t="n">
-        <v>3994.892354179641</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W14" t="n">
-        <v>3590.036899590675</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X14" t="n">
-        <v>3170.894436169986</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y14" t="n">
-        <v>2762.608312469639</v>
+        <v>2949.257965174173</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.2298140987277</v>
+        <v>965.4711828007304</v>
       </c>
       <c r="C16" t="n">
-        <v>633.6681025819527</v>
+        <v>914.5724765508969</v>
       </c>
       <c r="D16" t="n">
-        <v>467.7901097834754</v>
+        <v>748.6944837524196</v>
       </c>
       <c r="E16" t="n">
-        <v>298.0321060342126</v>
+        <v>578.9364800031569</v>
       </c>
       <c r="F16" t="n">
-        <v>121.3250519959688</v>
+        <v>402.2294259649132</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111519</v>
+        <v>236.6381509907408</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111535</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2713.395586583914</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2713.395586583914</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583902</v>
+        <v>1902.127631285905</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503607</v>
+        <v>1384.709472205609</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177148</v>
+        <v>1157.289801519717</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2336.308741984731</v>
+        <v>2522.958394689265</v>
       </c>
       <c r="C17" t="n">
-        <v>1898.166269168154</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D17" t="n">
-        <v>1462.256484342598</v>
+        <v>1648.906137047133</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.131392205428</v>
       </c>
       <c r="F17" t="n">
-        <v>787.263962614635</v>
+        <v>787.2639626146356</v>
       </c>
       <c r="G17" t="n">
         <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J17" t="n">
         <v>531.9906641340331</v>
@@ -5522,43 +5522,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2481.810506693463</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="N17" t="n">
-        <v>2481.810506693463</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="O17" t="n">
-        <v>3461.990173263769</v>
+        <v>3461.990173263767</v>
       </c>
       <c r="P17" t="n">
-        <v>4290.300048097165</v>
+        <v>4290.300048097163</v>
       </c>
       <c r="Q17" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S17" t="n">
-        <v>4836.798834055759</v>
+        <v>4803.381259633332</v>
       </c>
       <c r="T17" t="n">
-        <v>4616.731606928798</v>
+        <v>4803.381259633332</v>
       </c>
       <c r="U17" t="n">
-        <v>4357.509304245815</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V17" t="n">
-        <v>3994.892354179641</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W17" t="n">
-        <v>3590.036899590674</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X17" t="n">
-        <v>3170.894436169985</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y17" t="n">
-        <v>2762.608312469638</v>
+        <v>2949.257965174173</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>947.2320137580464</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C19" t="n">
-        <v>774.6703022412713</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D19" t="n">
         <v>608.792309442794</v>
@@ -5662,25 +5662,25 @@
         <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N19" t="n">
         <v>1778.026668523459</v>
@@ -5695,10 +5695,10 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S19" t="n">
-        <v>2695.15641754123</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="T19" t="n">
         <v>2449.276971119685</v>
@@ -5716,7 +5716,7 @@
         <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>1139.050632477034</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.958394689264</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.815921872688</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D20" t="n">
         <v>1648.906137047132</v>
@@ -5738,16 +5738,16 @@
         <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>787.263962614635</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G20" t="n">
         <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5759,19 +5759,19 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="N20" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O20" t="n">
-        <v>3421.580588915377</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P20" t="n">
-        <v>4249.890463748773</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q20" t="n">
-        <v>4796.389249707368</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
@@ -5780,22 +5780,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112635</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U20" t="n">
-        <v>4533.079733112635</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V20" t="n">
-        <v>4170.462783046461</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W20" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.544088874519</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.257965174172</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>806.2298140987276</v>
+        <v>1093.185322228297</v>
       </c>
       <c r="C22" t="n">
-        <v>633.6681025819526</v>
+        <v>920.6236107115216</v>
       </c>
       <c r="D22" t="n">
-        <v>467.7901097834753</v>
+        <v>754.7456179130443</v>
       </c>
       <c r="E22" t="n">
-        <v>298.0321060342125</v>
+        <v>584.9876141637816</v>
       </c>
       <c r="F22" t="n">
-        <v>121.3250519959687</v>
+        <v>408.2805601255378</v>
       </c>
       <c r="G22" t="n">
-        <v>121.3250519959687</v>
+        <v>242.6892851513654</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111519</v>
+        <v>102.7871108417399</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5938,22 +5938,22 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T22" t="n">
-        <v>2308.274771460367</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.841770713472</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V22" t="n">
-        <v>1742.886262583903</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="W22" t="n">
-        <v>1470.859858170194</v>
+        <v>1757.815366299763</v>
       </c>
       <c r="X22" t="n">
-        <v>1225.468103503606</v>
+        <v>1512.423611633175</v>
       </c>
       <c r="Y22" t="n">
-        <v>998.0484328177147</v>
+        <v>1285.003940947284</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6172,16 +6172,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
         <v>1617.386921419177</v>
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937642</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769891</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D28" t="n">
-        <v>451.8971520785117</v>
+        <v>451.8971520785109</v>
       </c>
       <c r="E28" t="n">
-        <v>282.139148329249</v>
+        <v>282.1391483292482</v>
       </c>
       <c r="F28" t="n">
-        <v>105.4320942910052</v>
+        <v>105.4320942910044</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6409,7 +6409,7 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176948</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
         <v>2292.381813755403</v>
@@ -6418,16 +6418,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878939</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.966900465231</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798643</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127512</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>949.5782250957673</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>777.0165135789922</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>611.1385207805149</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>441.3805170312521</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>264.6734629930083</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2451.623182457407</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2173.190181710512</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1614.208269167234</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,13 +6707,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3603.973621145286</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883917</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716166</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
         <v>614.3171730324584</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883918</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716167</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731394</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>303.5569696238767</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>126.8499155856329</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
         <v>102.2608402707796</v>
@@ -7126,19 +7126,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V37" t="n">
         <v>1748.411126173567</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
         <v>2090.757574835212</v>
@@ -7163,7 +7163,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7181,43 +7181,43 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N38" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.756877347711</v>
+        <v>811.7546776883918</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716167</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731395</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>473.3149733731395</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>296.6079193348957</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>296.6079193348957</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>156.7057450252702</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7421,40 +7421,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7546,13 +7546,13 @@
         <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>920.0973401405613</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>754.2193473420841</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>584.4613435928213</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
         <v>407.7542895545774</v>
@@ -7579,7 +7579,7 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O43" t="n">
         <v>2203.220781338905</v>
@@ -7594,22 +7594,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.920450173579</v>
+        <v>2595.191700773933</v>
       </c>
       <c r="T43" t="n">
-        <v>2473.041003752035</v>
+        <v>2349.312254352388</v>
       </c>
       <c r="U43" t="n">
-        <v>2316.271008272081</v>
+        <v>2070.879253605493</v>
       </c>
       <c r="V43" t="n">
-        <v>2029.315500142511</v>
+        <v>1783.923745475924</v>
       </c>
       <c r="W43" t="n">
-        <v>1757.289095728803</v>
+        <v>1511.897341062216</v>
       </c>
       <c r="X43" t="n">
-        <v>1511.897341062215</v>
+        <v>1511.897341062216</v>
       </c>
       <c r="Y43" t="n">
         <v>1284.477670376324</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D46" t="n">
         <v>614.3171730324584</v>
@@ -7831,16 +7831,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W46" t="n">
         <v>1617.386921419177</v>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>479.9987875054326</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854771</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,22 +8140,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>296.5687363523682</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>308.3808099909365</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>270.2148169866472</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314079</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314078</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662745</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>138.7244341558155</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314078</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8708,10 +8708,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>421.9740460140711</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>406.1054605095752</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807323</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>40.81776196807323</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807277</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -10355,16 +10355,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>801.4298400828725</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10829,13 +10829,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>1005.515419242839</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>50.14457787892946</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>11.3810530784677</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627257</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>184.7831561774883</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>10.96843159933807</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>120.4463752142722</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>184.7831561774883</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>49.73195639979996</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627254</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>267.5985112554907</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24023,13 +24023,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>10.96843159933634</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>114.1599680048242</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>81.78272691405289</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.7958207444073</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>3.146865729424181</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>139.5921776627255</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>33.87289402612573</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25834,13 +25834,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>35.1574931093336</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26071,19 +26071,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>139.5921776627259</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>708116.4192416756</v>
+        <v>715891.8313630255</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>708116.4192416756</v>
+        <v>718093.6208878095</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>709566.6630671695</v>
+        <v>718093.6208878095</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>696121.7779918059</v>
+        <v>696121.7779918058</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>696121.7779918058</v>
+        <v>696121.7779918056</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>696121.7779918058</v>
+        <v>696121.7779918056</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>725498.9124939645</v>
+        <v>725498.9124939644</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>725498.9124939643</v>
+        <v>725498.9124939644</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>254669.976947944</v>
+        <v>254669.9769479441</v>
       </c>
       <c r="C2" t="n">
         <v>254669.9769479441</v>
       </c>
       <c r="D2" t="n">
-        <v>254669.9769479441</v>
+        <v>254669.976947944</v>
       </c>
       <c r="E2" t="n">
         <v>240123.8515365463</v>
       </c>
       <c r="F2" t="n">
-        <v>240123.8515365464</v>
+        <v>240123.8515365463</v>
       </c>
       <c r="G2" t="n">
         <v>240123.8515365463</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039031</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.5443739065</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.8066720022</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520279</v>
+        <v>161735.0752101143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283946</v>
+        <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856134</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784502</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509506</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104681</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511645</v>
+        <v>158092.3824742623</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511645</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="D4" t="n">
-        <v>187055.8853966619</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>52352.490199087</v>
+        <v>52352.49019908698</v>
       </c>
       <c r="F4" t="n">
-        <v>52352.49019908701</v>
+        <v>52352.49019908698</v>
       </c>
       <c r="G4" t="n">
-        <v>52352.49019908701</v>
+        <v>52352.49019908698</v>
       </c>
       <c r="H4" t="n">
-        <v>52352.490199087</v>
+        <v>52352.49019908699</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962276</v>
@@ -26445,13 +26445,13 @@
         <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="M4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962274</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="O4" t="n">
         <v>54561.82510962276</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814195</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.2709484696</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,13 +26500,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
         <v>77718.2386057925</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-140642.7915001527</v>
+        <v>-180083.7982883632</v>
       </c>
       <c r="C6" t="n">
-        <v>1548.509159557238</v>
+        <v>15106.71376649071</v>
       </c>
       <c r="D6" t="n">
-        <v>-4941.986069189559</v>
+        <v>32447.25814039716</v>
       </c>
       <c r="E6" t="n">
-        <v>-109547.2746922161</v>
+        <v>-47559.61470509929</v>
       </c>
       <c r="F6" t="n">
-        <v>114252.0190598118</v>
+        <v>114175.460505015</v>
       </c>
       <c r="G6" t="n">
-        <v>114252.0190598118</v>
+        <v>114175.4605050149</v>
       </c>
       <c r="H6" t="n">
-        <v>114252.0190598118</v>
+        <v>114175.460505015</v>
       </c>
       <c r="I6" t="n">
-        <v>99612.57311698765</v>
+        <v>99589.34877760493</v>
       </c>
       <c r="J6" t="n">
-        <v>6962.823404836905</v>
+        <v>-42653.76507516896</v>
       </c>
       <c r="K6" t="n">
-        <v>117977.2887498271</v>
+        <v>104140.0558425995</v>
       </c>
       <c r="L6" t="n">
-        <v>109029.6776613176</v>
+        <v>117954.0644104445</v>
       </c>
       <c r="M6" t="n">
-        <v>-68813.69786064091</v>
+        <v>-17035.88020255891</v>
       </c>
       <c r="N6" t="n">
-        <v>117977.2887498271</v>
+        <v>117954.0644104445</v>
       </c>
       <c r="O6" t="n">
-        <v>117977.2887498271</v>
+        <v>117954.0644104445</v>
       </c>
       <c r="P6" t="n">
-        <v>117977.2887498271</v>
+        <v>117954.0644104445</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="H4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052212</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.550515282532</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080547</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052212</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825318</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052212</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.550515282532</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>393.8039196950754</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>113.7278999628232</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>86.13953629091218</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>52.71734668508481</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>72.7186805283352</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>86.55764165756273</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>140.7232059832941</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>143.8772399241461</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>262.7675277456127</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>256.0811030342888</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>95.6327693534022</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>90.92021546249566</v>
       </c>
     </row>
     <row r="11">
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>479.9987875054326</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854771</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>296.5687363523682</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>308.3808099909365</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>270.2148169866472</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314079</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314078</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662745</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>138.7244341558155</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314078</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35428,10 +35428,10 @@
         <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
-        <v>421.9740460140711</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>406.1054605095752</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807323</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35890,7 +35890,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>40.81776196807323</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,7 +36127,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36136,13 +36136,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807277</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -37002,13 +37002,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,16 +37075,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>801.4298400828725</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37233,13 +37233,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37549,13 +37549,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>1005.515419242839</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908064</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,19 +37944,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645584</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
